--- a/結果/100_100/100_100_result.xlsx
+++ b/結果/100_100/100_100_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:K304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>100_100_1pass</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>100_100_3pass</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,31 @@
           <t>固有角変形(θL)</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>縦収縮力</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>固有横収縮</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>固有角変形(θT)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>固有角変形(θL)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +501,21 @@
       <c r="E3" t="n">
         <v>-0.001265316565572437</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.165016502141953</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-31.95663789094205</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.001798876755808369</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.01152596038880107</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.0001900379641234695</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +533,21 @@
       <c r="E4" t="n">
         <v>-0.002148322684791095</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.495049506425858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-87.50928091561178</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.001923324292560951</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.01144612418346335</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.002122833525731165</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -505,6 +565,21 @@
       <c r="E5" t="n">
         <v>-0.002651370017721475</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.825082510709763</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-170.045247992802</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.002137023374791407</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.01229084424938984</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.003707863691452364</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -522,6 +597,21 @@
       <c r="E6" t="n">
         <v>-0.002904877281982626</v>
       </c>
+      <c r="G6" t="n">
+        <v>1.15511450171471</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-224.0736367232155</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.002275838352980271</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01270185557423114</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.00461008628232981</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -539,6 +629,21 @@
       <c r="E7" t="n">
         <v>-0.002592317586777606</v>
       </c>
+      <c r="G7" t="n">
+        <v>1.48514997959137</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-212.3211757515479</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.002440581178513067</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.0134138739447389</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.003570593515457469</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -556,6 +661,21 @@
       <c r="E8" t="n">
         <v>-0.002561044101172116</v>
       </c>
+      <c r="G8" t="n">
+        <v>1.8151850104332</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-211.822017492296</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.002529217619294324</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.01363373822005902</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.003378513218592615</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -573,6 +693,21 @@
       <c r="E9" t="n">
         <v>-0.002312476189481458</v>
       </c>
+      <c r="G9" t="n">
+        <v>2.14521503448486</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-194.6722228702823</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.002649952849740123</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.01418022863142329</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.00255791575796837</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -590,6 +725,21 @@
       <c r="E10" t="n">
         <v>-0.002346335187496492</v>
       </c>
+      <c r="G10" t="n">
+        <v>2.47524499893188</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-202.4094669122085</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.002708225262431537</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.01431258692515593</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.002733934365863236</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -607,6 +757,21 @@
       <c r="E11" t="n">
         <v>-0.002125451595557366</v>
       </c>
+      <c r="G11" t="n">
+        <v>2.80527997016907</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-193.0023339246019</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.002804564943209919</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.01477775440789109</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.002183582795480474</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -624,6 +789,21 @@
       <c r="E12" t="n">
         <v>-0.002175874336272625</v>
       </c>
+      <c r="G12" t="n">
+        <v>3.13531494140625</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-204.4122732564274</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.00284473240160387</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.01486674603624171</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.002467634720494047</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -641,6 +821,21 @@
       <c r="E13" t="n">
         <v>-0.001980649525547734</v>
       </c>
+      <c r="G13" t="n">
+        <v>3.46534490585327</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-196.8523163722381</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.002924056344052134</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01527569670741433</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.00200265745995285</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -658,6 +853,21 @@
       <c r="E14" t="n">
         <v>-0.00204360606870903</v>
       </c>
+      <c r="G14" t="n">
+        <v>3.79537999629974</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-207.7494852299611</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.002952709617357774</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.01533445311815224</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.002296988696815747</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -675,6 +885,21 @@
       <c r="E15" t="n">
         <v>-0.001862917792049787</v>
       </c>
+      <c r="G15" t="n">
+        <v>4.12541508674622</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-200.3358520856708</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.003021820869390279</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01570397709770964</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.001860594965816376</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -692,6 +917,21 @@
       <c r="E16" t="n">
         <v>-0.001925681768061774</v>
       </c>
+      <c r="G16" t="n">
+        <v>4.45544505119324</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-210.5547087702494</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.003045550203267137</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.0157529818687597</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.00214356468240935</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -709,6 +949,21 @@
       <c r="E17" t="n">
         <v>-0.00177491063058535</v>
       </c>
+      <c r="G17" t="n">
+        <v>4.78548002243042</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-204.0692972920152</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.003107358196519026</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.01608634538430258</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.001758631478392754</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -726,6 +981,21 @@
       <c r="E18" t="n">
         <v>-0.001846556249330615</v>
       </c>
+      <c r="G18" t="n">
+        <v>5.1155149936676</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-214.1154014162724</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.00312728419678766</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.01612877758415433</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.00203858454055543</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -743,6 +1013,21 @@
       <c r="E19" t="n">
         <v>-0.001722001506082501</v>
       </c>
+      <c r="G19" t="n">
+        <v>5.44554495811462</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-208.818257609508</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.003180692145147218</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.01642691601491697</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.001703066122137845</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -760,6 +1045,21 @@
       <c r="E20" t="n">
         <v>-0.001791902577057138</v>
       </c>
+      <c r="G20" t="n">
+        <v>5.77557492256165</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-218.121748198774</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.003195113295704604</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.01646193176336406</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.001957930209369688</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -777,6 +1077,21 @@
       <c r="E21" t="n">
         <v>-0.001673177591890799</v>
       </c>
+      <c r="G21" t="n">
+        <v>6.10560989379883</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-212.9249126716033</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.0032390576000861</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.01672006562681842</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.001644141679022555</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -794,6 +1109,21 @@
       <c r="E22" t="n">
         <v>-0.001738717353621735</v>
       </c>
+      <c r="G22" t="n">
+        <v>6.43564486503601</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-220.9368251016868</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.003249350113186159</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.01674678019822053</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.00187285461729566</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -811,6 +1141,21 @@
       <c r="E23" t="n">
         <v>-0.001635664929608953</v>
       </c>
+      <c r="G23" t="n">
+        <v>6.76567482948303</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-215.8088473835776</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.003287367203553786</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.01697320005777418</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.001590016701637216</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -828,6 +1173,21 @@
       <c r="E24" t="n">
         <v>-0.00169228605518376</v>
       </c>
+      <c r="G24" t="n">
+        <v>7.09570980072021</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-222.6927865743421</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.003297066839445719</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.01700023392871824</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.001785265842869506</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -845,6 +1205,21 @@
       <c r="E25" t="n">
         <v>-0.001599379100211057</v>
       </c>
+      <c r="G25" t="n">
+        <v>7.42574501037598</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-218.5070346942177</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.003330945832901335</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.01719759694064501</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.001543185313546616</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -862,6 +1237,21 @@
       <c r="E26" t="n">
         <v>-0.00164873206269552</v>
       </c>
+      <c r="G26" t="n">
+        <v>7.75577521324158</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-224.8595161513508</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.003340489281560831</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.01722978339920334</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.001724591743074736</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -879,6 +1269,21 @@
       <c r="E27" t="n">
         <v>-0.001571569789474703</v>
       </c>
+      <c r="G27" t="n">
+        <v>8.0858051776886</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-221.0510991808642</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.003369231008117926</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.01739779206436894</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.001520861275851105</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -896,6 +1301,21 @@
       <c r="E28" t="n">
         <v>-0.001619793817387829</v>
       </c>
+      <c r="G28" t="n">
+        <v>8.415840148925779</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-226.4790471404358</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.003378495092096718</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.01743466638344085</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.001668746129348621</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -913,6 +1333,21 @@
       <c r="E29" t="n">
         <v>-0.001554646099029214</v>
       </c>
+      <c r="G29" t="n">
+        <v>8.745874881744379</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-223.8383067971698</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.0034020371824279</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.01757499832595163</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.001506828113541517</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -930,6 +1365,21 @@
       <c r="E30" t="n">
         <v>-0.00159006330821943</v>
       </c>
+      <c r="G30" t="n">
+        <v>9.07590484619141</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-228.4119533307395</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.003410111816299486</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.01761800067495291</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.001625127882176167</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -947,6 +1397,21 @@
       <c r="E31" t="n">
         <v>-0.001530265252119597</v>
       </c>
+      <c r="G31" t="n">
+        <v>9.40594005584717</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-226.2981015244304</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.003427863734980897</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.01772692661388832</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.001497133011814894</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -964,6 +1429,21 @@
       <c r="E32" t="n">
         <v>-0.001557831484717434</v>
       </c>
+      <c r="G32" t="n">
+        <v>9.73597478866577</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-229.7646087286333</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.00343593125497324</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-0.01777743846807418</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.001578717535726771</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -981,6 +1461,21 @@
       <c r="E33" t="n">
         <v>-0.001516984829604026</v>
       </c>
+      <c r="G33" t="n">
+        <v>10.0659947395325</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-228.1996752274618</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.003449173879114078</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.01785755425706952</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.001492865893131562</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -998,6 +1493,21 @@
       <c r="E34" t="n">
         <v>-0.001519370106818377</v>
       </c>
+      <c r="G34" t="n">
+        <v>10.3960499763489</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-230.2416190914017</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.003457627472274815</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.01791520245931123</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.001532329329932126</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1015,6 +1525,21 @@
       <c r="E35" t="n">
         <v>-0.001495137819410043</v>
       </c>
+      <c r="G35" t="n">
+        <v>10.7260999679565</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-229.1007708810675</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.003467923583227989</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.01796921875860388</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.001464354529780537</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1032,6 +1557,21 @@
       <c r="E36" t="n">
         <v>-0.001491314678770561</v>
       </c>
+      <c r="G36" t="n">
+        <v>11.0560998916626</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-231.0359143527805</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.003478735503292427</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.01804062673931479</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.001489965632095952</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1049,6 +1589,21 @@
       <c r="E37" t="n">
         <v>-0.001480988445766225</v>
       </c>
+      <c r="G37" t="n">
+        <v>11.3861498832703</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-230.9859809886801</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.003487765532137348</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.01808062364382164</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.00145546529417993</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1066,6 +1621,21 @@
       <c r="E38" t="n">
         <v>-0.001476754952617396</v>
       </c>
+      <c r="G38" t="n">
+        <v>11.7161998748779</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-232.8328353712618</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.003499915219231224</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.01816335882893467</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.001467601062452566</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1083,6 +1653,21 @@
       <c r="E39" t="n">
         <v>-0.001480424616265719</v>
       </c>
+      <c r="G39" t="n">
+        <v>12.046199798584</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-233.5506729878571</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.003505358111863844</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.01818471795152376</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.001465913427722296</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1100,6 +1685,21 @@
       <c r="E40" t="n">
         <v>-0.001467213841483058</v>
       </c>
+      <c r="G40" t="n">
+        <v>12.3762497901917</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-234.5534884682072</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.003515981122933038</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.0182686414667463</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.001452988598318872</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1117,6 +1717,21 @@
       <c r="E41" t="n">
         <v>-0.001472734610382696</v>
       </c>
+      <c r="G41" t="n">
+        <v>12.7062997817993</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-235.0229888318355</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.003517406356450399</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.01827017734166914</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.001456666829450578</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1134,6 +1749,21 @@
       <c r="E42" t="n">
         <v>-0.001452809193399594</v>
       </c>
+      <c r="G42" t="n">
+        <v>13.0362997055054</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-235.0590152687554</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.003527431032221772</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.01835654715017642</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.001415906848976594</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1151,6 +1781,21 @@
       <c r="E43" t="n">
         <v>-0.001469770822288421</v>
       </c>
+      <c r="G43" t="n">
+        <v>13.366349697113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-235.8812305025602</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.003527090320741241</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.01834696410141286</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.001439795751998453</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1168,6 +1813,21 @@
       <c r="E44" t="n">
         <v>-0.00144078942980715</v>
       </c>
+      <c r="G44" t="n">
+        <v>13.6963996887207</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-235.6850688583657</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.003538481550118594</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.01844105259765016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.001383361518421008</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1185,6 +1845,21 @@
       <c r="E45" t="n">
         <v>-0.001459579003387472</v>
       </c>
+      <c r="G45" t="n">
+        <v>14.0263996124268</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-237.4756672801238</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.003537215006105677</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.01842063894600964</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.001435428596981129</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1202,6 +1877,21 @@
       <c r="E46" t="n">
         <v>-0.001422019129891893</v>
       </c>
+      <c r="G46" t="n">
+        <v>14.3564496040344</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-237.0088748251579</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.003549518089191745</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.01852134894652548</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.001364322330332787</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1219,6 +1909,21 @@
       <c r="E47" t="n">
         <v>-0.001449821090738364</v>
       </c>
+      <c r="G47" t="n">
+        <v>14.6864995956421</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-238.8419202553998</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.003545644596836187</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.01848519235363751</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.001428752463290779</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1236,6 +1941,21 @@
       <c r="E48" t="n">
         <v>-0.001410319580314599</v>
       </c>
+      <c r="G48" t="n">
+        <v>15.0164999961853</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-237.7135312374373</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.003557881813894199</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.01858783934153727</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.001336066370203299</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1253,6 +1973,21 @@
       <c r="E49" t="n">
         <v>-0.00144573058403797</v>
       </c>
+      <c r="G49" t="n">
+        <v>15.346549987793</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-239.6617006567068</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.00355217779266715</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.01853980470658172</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.001405167378576251</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1270,6 +2005,21 @@
       <c r="E50" t="n">
         <v>-0.001399123015307116</v>
       </c>
+      <c r="G50" t="n">
+        <v>15.6765999794006</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-238.3400019193559</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.003563368808103496</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.01863965863179708</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.001304247502445387</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1287,6 +2037,21 @@
       <c r="E51" t="n">
         <v>-0.001429808533556087</v>
       </c>
+      <c r="G51" t="n">
+        <v>16.0066003799438</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-240.3415671637553</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.003555776226632916</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.01858205307867216</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.001375745553704389</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1304,6 +2069,21 @@
       <c r="E52" t="n">
         <v>-0.001382671300799381</v>
       </c>
+      <c r="G52" t="n">
+        <v>16.3366003036499</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-238.8400299681419</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.003566531344554232</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.01868048015264599</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.001271815472437805</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1321,6 +2101,21 @@
       <c r="E53" t="n">
         <v>-0.001419933258033239</v>
       </c>
+      <c r="G53" t="n">
+        <v>16.6666498184204</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-240.5242512306735</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.003558483758358372</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.01861914015213622</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.001343865658504651</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1338,6 +2133,21 @@
       <c r="E54" t="n">
         <v>-0.001367163772861196</v>
       </c>
+      <c r="G54" t="n">
+        <v>16.9966993331909</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-238.6586541500556</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.003569278225615658</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.01871518605183567</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.001243091656180027</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1355,6 +2165,21 @@
       <c r="E55" t="n">
         <v>-0.001402546197240959</v>
       </c>
+      <c r="G55" t="n">
+        <v>17.326699256897</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-240.8466683305343</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.003561820693539807</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.01865155315542509</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.001333075538494285</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1372,6 +2197,21 @@
       <c r="E56" t="n">
         <v>-0.001353328928885614</v>
       </c>
+      <c r="G56" t="n">
+        <v>17.6567497253418</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-239.1573484664679</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.003575135103481225</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.01875589219373338</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.001222739888592443</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1389,6 +2229,21 @@
       <c r="E57" t="n">
         <v>-0.001396893145933691</v>
       </c>
+      <c r="G57" t="n">
+        <v>17.9868001937866</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-242.3915343317104</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.003569019916575249</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.01869796093265194</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.00133278629105722</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1406,6 +2261,21 @@
       <c r="E58" t="n">
         <v>-0.001344102086448769</v>
       </c>
+      <c r="G58" t="n">
+        <v>18.3168001174927</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-240.9785235818854</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-0.003582661146558433</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-0.0188055970193221</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.001220585477689839</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1423,6 +2293,21 @@
       <c r="E59" t="n">
         <v>-0.001391793806789256</v>
       </c>
+      <c r="G59" t="n">
+        <v>18.6468496322632</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-244.4540776645424</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.003574997460826045</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.01874333201576391</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.001340192387588852</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1440,6 +2325,21 @@
       <c r="E60" t="n">
         <v>-0.001335370076698085</v>
       </c>
+      <c r="G60" t="n">
+        <v>18.9768991470337</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-242.2517016137845</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.003587029303960167</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.01884848697751421</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.001207745075650352</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1457,6 +2357,21 @@
       <c r="E61" t="n">
         <v>-0.001384415127040407</v>
       </c>
+      <c r="G61" t="n">
+        <v>19.3069000244141</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-245.1086703410646</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.003577428331443653</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.01877809439722353</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.001319745637519909</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1474,6 +2389,21 @@
       <c r="E62" t="n">
         <v>-0.001327736658352597</v>
       </c>
+      <c r="G62" t="n">
+        <v>19.6369504928589</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-242.0721590148913</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.00358970351269969</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-0.01888574849236194</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.001172219307792164</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1491,6 +2421,21 @@
       <c r="E63" t="n">
         <v>-0.001382892907220663</v>
       </c>
+      <c r="G63" t="n">
+        <v>19.9670000076294</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-245.1862102933024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.003579212883460864</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.01880720855589797</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.001301381855037393</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1508,6 +2453,21 @@
       <c r="E64" t="n">
         <v>-0.001322622422791423</v>
       </c>
+      <c r="G64" t="n">
+        <v>20.2969999313354</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-242.079746789808</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.00359332914828052</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.01892333587794276</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.001150083491090749</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1525,6 +2485,21 @@
       <c r="E65" t="n">
         <v>-0.001376730559929772</v>
       </c>
+      <c r="G65" t="n">
+        <v>20.6270503997803</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-246.3316281509249</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.003582785030225738</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.01884100157233369</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.001314878472182359</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1542,6 +2517,21 @@
       <c r="E66" t="n">
         <v>-0.001318005937702434</v>
       </c>
+      <c r="G66" t="n">
+        <v>20.9571008682251</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-242.9057965218359</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.003597786665505406</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.01896137931514586</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.001145925976883889</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1559,6 +2549,21 @@
       <c r="E67" t="n">
         <v>-0.001380863056142845</v>
       </c>
+      <c r="G67" t="n">
+        <v>21.2871007919312</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-247.54970022022</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.00358559148589154</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.01887201670904704</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.001325753184677278</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,6 +2581,21 @@
       <c r="E68" t="n">
         <v>-0.001312013112159329</v>
       </c>
+      <c r="G68" t="n">
+        <v>21.6171503067017</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-243.5691490212595</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.003600950172415491</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.01899616731038243</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.001131948868205967</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1593,6 +2613,21 @@
       <c r="E69" t="n">
         <v>-0.001380958654154459</v>
       </c>
+      <c r="G69" t="n">
+        <v>21.9471998214722</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-248.6133529518548</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.003587980495507116</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-0.01890164987047393</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-0.001326744234955593</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1610,6 +2645,21 @@
       <c r="E70" t="n">
         <v>-0.0013100486167778</v>
       </c>
+      <c r="G70" t="n">
+        <v>22.2771997451782</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-244.3351353108889</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.003603779832285554</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-0.01902968479022623</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.001124443629697298</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1627,6 +2677,21 @@
       <c r="E71" t="n">
         <v>-0.001380362523707975</v>
       </c>
+      <c r="G71" t="n">
+        <v>22.607250213623</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-249.6163279216662</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.003589179223041272</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.01892729441200056</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.001334799540458612</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1644,6 +2709,21 @@
       <c r="E72" t="n">
         <v>-0.001304379302412384</v>
       </c>
+      <c r="G72" t="n">
+        <v>22.9373006820679</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-244.3297530339166</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.003605087025590826</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.01905789223067154</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.001105008274863961</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1661,6 +2741,21 @@
       <c r="E73" t="n">
         <v>-0.001379200703474446</v>
       </c>
+      <c r="G73" t="n">
+        <v>23.2673006057739</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-249.4147431057394</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.003589180353464281</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-0.01894573283511221</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.001321900713531168</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1678,6 +2773,21 @@
       <c r="E74" t="n">
         <v>-0.001291671476351228</v>
       </c>
+      <c r="G74" t="n">
+        <v>23.5973501205444</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-243.4091468426916</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.003607840717778605</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.01908878559887236</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.001070015379932161</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1695,6 +2805,21 @@
       <c r="E75" t="n">
         <v>-0.001362548295047857</v>
       </c>
+      <c r="G75" t="n">
+        <v>23.9273996353149</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-249.4438980469117</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.003592635677706481</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-0.01897405919263864</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-0.001316343726812751</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1712,6 +2837,21 @@
       <c r="E76" t="n">
         <v>-0.001276039738054273</v>
       </c>
+      <c r="G76" t="n">
+        <v>24.257399559021</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-243.8769631746607</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-0.003614224813522856</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.01913020497519009</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.001064279455379882</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1729,6 +2869,21 @@
       <c r="E77" t="n">
         <v>-0.001365591672814232</v>
       </c>
+      <c r="G77" t="n">
+        <v>24.5874500274658</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-251.4173198143711</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.003598884673111695</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.01901118979612995</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.001354120538172317</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1746,6 +2901,21 @@
       <c r="E78" t="n">
         <v>-0.001277339607298548</v>
       </c>
+      <c r="G78" t="n">
+        <v>24.9175004959106</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-245.5176908600973</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.003621397665030618</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-0.0191760389458064</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.001085658550951812</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1763,6 +2933,21 @@
       <c r="E79" t="n">
         <v>-0.001368432450591785</v>
       </c>
+      <c r="G79" t="n">
+        <v>25.2475004196167</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-253.1930300033367</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-0.003603689354021697</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.01904659549734024</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.001380290081828819</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1780,6 +2965,21 @@
       <c r="E80" t="n">
         <v>-0.001274053148916422</v>
       </c>
+      <c r="G80" t="n">
+        <v>25.5775499343872</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-246.4598371823136</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.00362533613725628</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.01921129475677992</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.00108615107715077</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1797,6 +2997,21 @@
       <c r="E81" t="n">
         <v>-0.001370282368988414</v>
       </c>
+      <c r="G81" t="n">
+        <v>25.9075994491577</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-253.8290357188402</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.003605564069643991</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.01907151397698227</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-0.001385574171937709</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1814,6 +3029,21 @@
       <c r="E82" t="n">
         <v>-0.001277038101421287</v>
       </c>
+      <c r="G82" t="n">
+        <v>26.2375993728638</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-246.1574743167622</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.003627899334922598</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-0.01924138227021681</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.001070788323284997</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1831,6 +3061,21 @@
       <c r="E83" t="n">
         <v>-0.001386955146296243</v>
       </c>
+      <c r="G83" t="n">
+        <v>26.5676498413086</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-254.1298331641232</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.003607573575089959</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.01909354208838815</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.001398040775350206</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1848,6 +3093,21 @@
       <c r="E84" t="n">
         <v>-0.001287690337777583</v>
       </c>
+      <c r="G84" t="n">
+        <v>26.8977003097534</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-246.3078753154162</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.003632211385112189</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-0.01927325323926822</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.00106904307314381</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1865,6 +3125,21 @@
       <c r="E85" t="n">
         <v>-0.001386543547153673</v>
       </c>
+      <c r="G85" t="n">
+        <v>27.2277002334595</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-254.7535700460251</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.003610947770351932</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.01912002559774784</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.001403565056661327</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1882,6 +3157,21 @@
       <c r="E86" t="n">
         <v>-0.001274101465679457</v>
       </c>
+      <c r="G86" t="n">
+        <v>27.55774974823</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-246.6342867537084</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.003635348960636201</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-0.0193028154811848</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-0.001053156875472889</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1899,6 +3189,21 @@
       <c r="E87" t="n">
         <v>-0.001380520638801099</v>
       </c>
+      <c r="G87" t="n">
+        <v>27.8877992630005</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-255.6938132694096</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.003612409998066348</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.0191427837823059</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.001407456600267897</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1916,6 +3221,21 @@
       <c r="E88" t="n">
         <v>-0.001269426145262616</v>
       </c>
+      <c r="G88" t="n">
+        <v>28.2177991867065</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-247.6520179864253</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.003637299173977438</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.01933051113215121</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.001056612171395773</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1933,6 +3253,21 @@
       <c r="E89" t="n">
         <v>-0.001382368815998621</v>
       </c>
+      <c r="G89" t="n">
+        <v>28.5478496551514</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-257.1949358892372</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.003613290903782178</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-0.01916462456448002</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.001432494428726499</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1950,6 +3285,21 @@
       <c r="E90" t="n">
         <v>-0.001272126288136492</v>
       </c>
+      <c r="G90" t="n">
+        <v>28.8779001235962</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-248.3041141366428</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.003638041657655936</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-0.01935384975506129</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.001060601304235618</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1967,6 +3317,21 @@
       <c r="E91" t="n">
         <v>-0.001399556403423654</v>
       </c>
+      <c r="G91" t="n">
+        <v>29.2079000473022</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-257.75900230888</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.003612171808362537</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.01917625818111949</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.001446905364344334</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1984,6 +3349,21 @@
       <c r="E92" t="n">
         <v>-0.001278045578833101</v>
       </c>
+      <c r="G92" t="n">
+        <v>29.5379495620728</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-247.3845231455001</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.003636643919503952</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-0.01936524454049329</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.001034672890497511</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2001,6 +3381,21 @@
       <c r="E93" t="n">
         <v>-0.001395365725862081</v>
       </c>
+      <c r="G93" t="n">
+        <v>29.8680000305176</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-256.1631459773907</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.003609084492722356</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.01917579748137555</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-0.001405123331865031</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2018,6 +3413,21 @@
       <c r="E94" t="n">
         <v>-0.001259259110525522</v>
       </c>
+      <c r="G94" t="n">
+        <v>30.1980009078979</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-245.4740443595662</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.003635579333487468</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-0.01937266996267845</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-0.0009775685870161463</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2035,6 +3445,21 @@
       <c r="E95" t="n">
         <v>-0.001375504174909759</v>
       </c>
+      <c r="G95" t="n">
+        <v>30.5280504226685</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-255.0158857814349</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.003609532730745461</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-0.01918678418164388</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-0.001370237676745289</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2052,6 +3477,21 @@
       <c r="E96" t="n">
         <v>-0.001244455326930961</v>
       </c>
+      <c r="G96" t="n">
+        <v>30.858099937439</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-245.3798940514885</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.003637904877134143</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-0.01939212889718945</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.0009630256059957633</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2069,6 +3509,21 @@
       <c r="E97" t="n">
         <v>-0.001371285224391157</v>
       </c>
+      <c r="G97" t="n">
+        <v>31.188099861145</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-256.3020385206643</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.003612397171813085</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-0.01920890497447935</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.001386913028142845</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2086,6 +3541,21 @@
       <c r="E98" t="n">
         <v>-0.001245556570131626</v>
       </c>
+      <c r="G98" t="n">
+        <v>31.5181503295898</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-247.2890753834254</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.003641017738755269</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.01941827913528611</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.0009917108272836372</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2103,6 +3573,21 @@
       <c r="E99" t="n">
         <v>-0.001373532701523227</v>
       </c>
+      <c r="G99" t="n">
+        <v>31.8481998443604</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-258.4134970593298</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.003614609020671788</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.01923403967843575</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.001423760858375548</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2120,6 +3605,21 @@
       <c r="E100" t="n">
         <v>-0.001244835255917267</v>
       </c>
+      <c r="G100" t="n">
+        <v>32.1781997680664</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-248.6833390018336</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.003642091951407269</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.01944149871954308</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.001013747384834402</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2137,6 +3637,21 @@
       <c r="E101" t="n">
         <v>-0.001377369098508902</v>
       </c>
+      <c r="G101" t="n">
+        <v>32.5082511901855</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-259.080394514222</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.003614237085208871</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-0.01925081485505591</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.001436461673421627</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2154,6 +3669,21 @@
       <c r="E102" t="n">
         <v>-0.001252062073421481</v>
       </c>
+      <c r="G102" t="n">
+        <v>32.8383007049561</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-248.4203913519018</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.003641684855931311</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.01945870495370559</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.001003647177139611</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2171,6 +3701,21 @@
       <c r="E103" t="n">
         <v>-0.00138577242347751</v>
       </c>
+      <c r="G103" t="n">
+        <v>33.1683006286621</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-258.5886969657884</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.003613472797527515</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.01926341818612238</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.001419426824587284</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2188,6 +3733,21 @@
       <c r="E104" t="n">
         <v>-0.001251249372405341</v>
       </c>
+      <c r="G104" t="n">
+        <v>33.4983501434326</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-248.311668550742</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.003641907763934228</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.01947344886165584</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.000989237612865957</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2205,6 +3765,21 @@
       <c r="E105" t="n">
         <v>-0.001375724764716294</v>
       </c>
+      <c r="G105" t="n">
+        <v>33.8283996582031</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-258.76290144398</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.003614470338750234</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-0.01928166857942855</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-0.001408384635759563</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2222,6 +3797,21 @@
       <c r="E106" t="n">
         <v>-0.001238719126964034</v>
       </c>
+      <c r="G106" t="n">
+        <v>34.1583995819092</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-248.7375020255173</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.003641788603354062</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-0.01948572531787799</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.0009867623173218081</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2239,6 +3829,21 @@
       <c r="E107" t="n">
         <v>-0.001370914148145316</v>
       </c>
+      <c r="G107" t="n">
+        <v>34.4884490966797</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-259.1368997611299</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.003614370679673246</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.01929592125977398</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.001405790173547665</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2256,6 +3861,21 @@
       <c r="E108" t="n">
         <v>-0.001241414928891807</v>
       </c>
+      <c r="G108" t="n">
+        <v>34.8185005187988</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-249.1341944516822</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.003641059176291358</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.01949555164291578</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.0009825572051303077</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2273,6 +3893,21 @@
       <c r="E109" t="n">
         <v>-0.001371525219686834</v>
       </c>
+      <c r="G109" t="n">
+        <v>35.1485004425049</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-258.9060627570156</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.003613799006628085</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.01930864515450845</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.001376514849505076</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2290,6 +3925,21 @@
       <c r="E110" t="n">
         <v>-0.001241504310424638</v>
       </c>
+      <c r="G110" t="n">
+        <v>35.4785499572754</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-249.0092480039891</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.003638059651913879</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.01949612382494247</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.0009675216670384745</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2307,6 +3957,21 @@
       <c r="E111" t="n">
         <v>-0.001369220235169278</v>
       </c>
+      <c r="G111" t="n">
+        <v>35.8085994720459</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-258.0367693788107</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.003611563878884881</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.01931556812582183</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-0.001336605054971799</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2324,6 +3989,21 @@
       <c r="E112" t="n">
         <v>-0.001241323714929034</v>
       </c>
+      <c r="G112" t="n">
+        <v>36.138599395752</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-248.4265068238191</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.003633494247182698</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0.0194875828255322</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.0009503698981436053</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2341,6 +4021,21 @@
       <c r="E113" t="n">
         <v>-0.001360662939779595</v>
       </c>
+      <c r="G113" t="n">
+        <v>36.4686508178711</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-256.7529506255859</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.003608157094711039</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.01931675687363222</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.001303938932533829</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2358,6 +4053,21 @@
       <c r="E114" t="n">
         <v>-0.001230272045455773</v>
       </c>
+      <c r="G114" t="n">
+        <v>36.7987003326416</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-247.4307308309619</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.003630036662704261</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0.01948029353675012</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.0009315734059776341</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2375,6 +4085,21 @@
       <c r="E115" t="n">
         <v>-0.001334978771649347</v>
       </c>
+      <c r="G115" t="n">
+        <v>37.1287002563477</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-255.5678222521928</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.003608399031671448</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.01932786879999348</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.001268542132658402</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2392,6 +4117,21 @@
       <c r="E116" t="n">
         <v>-0.001221997983103152</v>
       </c>
+      <c r="G116" t="n">
+        <v>37.4587497711182</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-247.7384092832303</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.003629876432892276</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.01948233333042566</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-0.0009385905451931346</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2409,6 +4149,21 @@
       <c r="E117" t="n">
         <v>-0.00132598588394702</v>
       </c>
+      <c r="G117" t="n">
+        <v>37.7887992858887</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-256.182415387815</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.003610961240882726</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.01934840123764198</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.001266328441126743</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2426,6 +4181,21 @@
       <c r="E118" t="n">
         <v>-0.001234159450585377</v>
       </c>
+      <c r="G118" t="n">
+        <v>38.1187992095947</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-249.6484742047556</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.00363040266749613</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.01949044094276644</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.0009790082312063264</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2443,6 +4213,21 @@
       <c r="E119" t="n">
         <v>-0.001331923101802559</v>
       </c>
+      <c r="G119" t="n">
+        <v>38.4488487243652</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-257.271478266346</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.003612761724514987</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.01937254395875152</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-0.001274565458710407</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2460,6 +4245,21 @@
       <c r="E120" t="n">
         <v>-0.001240141423037698</v>
       </c>
+      <c r="G120" t="n">
+        <v>38.7789001464844</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-250.7114478915142</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.003629009038119293</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.01949701668293281</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.001001196138942344</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2477,6 +4277,21 @@
       <c r="E121" t="n">
         <v>-0.001327563518793852</v>
       </c>
+      <c r="G121" t="n">
+        <v>39.1089000701904</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-256.9464718226479</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.003612733488992061</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.01939198824301176</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.001259916027700409</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2494,6 +4309,21 @@
       <c r="E122" t="n">
         <v>-0.001245590485733473</v>
       </c>
+      <c r="G122" t="n">
+        <v>39.4389495849609</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-250.4692723624641</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.003627197748557166</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.01950301646742419</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.001005695029440486</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2511,6 +4341,21 @@
       <c r="E123" t="n">
         <v>-0.001321554251273555</v>
       </c>
+      <c r="G123" t="n">
+        <v>39.7689990997314</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-255.9820471015177</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.003613443892625362</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.01941372928113197</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-0.001230657370062117</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2528,6 +4373,21 @@
       <c r="E124" t="n">
         <v>-0.001246262097589179</v>
       </c>
+      <c r="G124" t="n">
+        <v>40.0989990234375</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-250.730124322621</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.003626796896378904</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.01951125988661851</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-0.001009927089349997</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2545,6 +4405,21 @@
       <c r="E125" t="n">
         <v>-0.001311010655027902</v>
       </c>
+      <c r="G125" t="n">
+        <v>40.4290504455566</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-255.996737995906</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.003616055722679611</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.01944166709976472</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-0.001210840275709969</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2562,6 +4437,21 @@
       <c r="E126" t="n">
         <v>-0.001249205579810843</v>
       </c>
+      <c r="G126" t="n">
+        <v>40.7590999603271</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-251.4571858688186</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.003626717124181369</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.01952081411220192</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-0.001026768695835676</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2579,6 +4469,21 @@
       <c r="E127" t="n">
         <v>-0.001310713418093522</v>
       </c>
+      <c r="G127" t="n">
+        <v>41.0890998840332</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-255.9593906121517</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.003618225791560738</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.01946789450914673</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.001191868411429709</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2596,6 +4501,21 @@
       <c r="E128" t="n">
         <v>-0.001259090805047158</v>
       </c>
+      <c r="G128" t="n">
+        <v>41.4191513061523</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-252.5855169609356</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.003626378365331275</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.01952977450447785</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.001048282515081604</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2613,6 +4533,21 @@
       <c r="E129" t="n">
         <v>-0.001306486924163194</v>
       </c>
+      <c r="G129" t="n">
+        <v>41.7492008209229</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-256.2870451459606</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.003619525942942455</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.01949364672172632</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.001183829861352842</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2630,6 +4565,21 @@
       <c r="E130" t="n">
         <v>-0.001259234329820822</v>
       </c>
+      <c r="G130" t="n">
+        <v>42.0792007446289</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-253.415597194685</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.003624422005294588</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.01953384959036401</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.001071323830876944</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2647,6 +4597,21 @@
       <c r="E131" t="n">
         <v>-0.001297988104158899</v>
       </c>
+      <c r="G131" t="n">
+        <v>42.4092502593994</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-256.0136568243828</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.003619968304893517</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.01951433279520098</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-0.001168439420364554</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2664,6 +4629,21 @@
       <c r="E132" t="n">
         <v>-0.001268705741461259</v>
       </c>
+      <c r="G132" t="n">
+        <v>42.7392997741699</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-253.5996452540062</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.003622416706556546</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.01953348949032876</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.001095166842398472</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2681,6 +4661,21 @@
       <c r="E133" t="n">
         <v>-0.001281303585369481</v>
       </c>
+      <c r="G133" t="n">
+        <v>43.069299697876</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-254.6486264660905</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.003619991376732321</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0.01952850477321594</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.001144360289248364</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2698,6 +4693,21 @@
       <c r="E134" t="n">
         <v>-0.001262365382470134</v>
       </c>
+      <c r="G134" t="n">
+        <v>43.3993492126465</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-252.4685571790419</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.003620565130805915</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.01952673652069484</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.00107820322696526</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2715,6 +4725,21 @@
       <c r="E135" t="n">
         <v>-0.001264711992719878</v>
       </c>
+      <c r="G135" t="n">
+        <v>43.7294006347656</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-253.533105128935</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.003621798571725027</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.01954128930223758</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.001108408774626748</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2732,6 +4757,21 @@
       <c r="E136" t="n">
         <v>-0.001264513131797457</v>
       </c>
+      <c r="G136" t="n">
+        <v>44.0594005584717</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-253.0375171871713</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.003622243266013915</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.01953067774454311</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.001089094208062654</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2749,6 +4789,21 @@
       <c r="E137" t="n">
         <v>-0.001268888617564905</v>
       </c>
+      <c r="G137" t="n">
+        <v>44.3894500732422</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-254.5894180284916</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.003625772372245635</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.01956181845939951</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.001118242319710036</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2766,6 +4821,21 @@
       <c r="E138" t="n">
         <v>-0.001281632371771162</v>
       </c>
+      <c r="G138" t="n">
+        <v>44.7194995880127</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-255.0317257502923</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.003623775654802745</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.0195379173294594</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.001132268767013935</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2783,6 +4853,21 @@
       <c r="E139" t="n">
         <v>-0.001274865649721628</v>
       </c>
+      <c r="G139" t="n">
+        <v>45.0494995117188</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-255.5373900627528</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.003627236073385286</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.01957671922114821</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.001128535966963564</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2800,6 +4885,21 @@
       <c r="E140" t="n">
         <v>-0.001286346290621961</v>
       </c>
+      <c r="G140" t="n">
+        <v>45.3795509338379</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-255.3916874168059</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.003622489471513983</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.01953796837637552</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.001140086455761222</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2817,6 +4917,21 @@
       <c r="E141" t="n">
         <v>-0.001270918276158541</v>
       </c>
+      <c r="G141" t="n">
+        <v>45.7096004486084</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-254.7279493588576</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.003626576840838212</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0.01958331088047622</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-0.001105309973860509</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2834,6 +4949,21 @@
       <c r="E142" t="n">
         <v>-0.001293929914109727</v>
       </c>
+      <c r="G142" t="n">
+        <v>46.0396003723145</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-254.8020932077561</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.003621098972256216</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.01953683470315705</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-0.001133983471565748</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2851,6 +4981,21 @@
       <c r="E143" t="n">
         <v>-0.001270135200418883</v>
       </c>
+      <c r="G143" t="n">
+        <v>46.369649887085</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-253.9819556618344</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.0036271783054471</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.01959299073025403</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-0.001083293537642191</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2868,6 +5013,21 @@
       <c r="E144" t="n">
         <v>-0.001295250206527018</v>
       </c>
+      <c r="G144" t="n">
+        <v>46.6996994018555</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-255.2226014511724</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.003621103278495022</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.01953781361443664</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.001143056475838544</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2885,6 +5045,21 @@
       <c r="E145" t="n">
         <v>-0.001262204126083793</v>
       </c>
+      <c r="G145" t="n">
+        <v>47.0296993255615</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-254.2739196495039</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.003628751890533025</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.01960415316480178</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-0.001078921360219106</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2902,6 +5077,21 @@
       <c r="E146" t="n">
         <v>-0.001295121425776258</v>
       </c>
+      <c r="G146" t="n">
+        <v>47.359748840332</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-255.6629400192974</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.003620899573989692</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.01953731277089504</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-0.001151961081376216</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2919,6 +5109,21 @@
       <c r="E147" t="n">
         <v>-0.001259753610070143</v>
       </c>
+      <c r="G147" t="n">
+        <v>47.6898002624512</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-254.1431388018983</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.003629239750463085</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.01960905279540186</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.001067322043664752</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2936,6 +5141,21 @@
       <c r="E148" t="n">
         <v>-0.001300089548381145</v>
       </c>
+      <c r="G148" t="n">
+        <v>48.0198001861572</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-255.6268792221347</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.0036200689690623</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.01953256241365875</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-0.001143484919252582</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2953,6 +5173,21 @@
       <c r="E149" t="n">
         <v>-0.0012571915106844</v>
       </c>
+      <c r="G149" t="n">
+        <v>48.3498497009277</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-253.835995242758</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.003628077327755088</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.01960471578270498</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-0.001047438027465793</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2970,6 +5205,21 @@
       <c r="E150" t="n">
         <v>-0.001292678493149864</v>
       </c>
+      <c r="G150" t="n">
+        <v>48.6798992156982</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-255.310886257028</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.003617740158192274</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.01952124810936675</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-0.001125231745750324</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2987,6 +5237,21 @@
       <c r="E151" t="n">
         <v>-0.001249113797384354</v>
       </c>
+      <c r="G151" t="n">
+        <v>49.0098991394043</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-253.3071836195537</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.003626004736984973</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.01959443583897893</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-0.00102616981886218</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3004,6 +5269,21 @@
       <c r="E152" t="n">
         <v>-0.00129078456750729</v>
       </c>
+      <c r="G152" t="n">
+        <v>49.3399505615234</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-254.4063423319133</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.003615834434499137</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.01950950918588295</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-0.00110406156636148</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3021,6 +5301,21 @@
       <c r="E153" t="n">
         <v>-0.001241564167319579</v>
       </c>
+      <c r="G153" t="n">
+        <v>49.6700000762939</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-252.0768861380016</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.003624550162834841</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-0.01958232514511702</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-0.001008042889302588</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3038,6 +5333,21 @@
       <c r="E154" t="n">
         <v>-0.001280797970621768</v>
       </c>
+      <c r="G154" t="n">
+        <v>50</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-253.7474615407877</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.003615028029902824</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.01949635335093993</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-0.001102896027021762</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3055,6 +5365,21 @@
       <c r="E155" t="n">
         <v>-0.001234745054493285</v>
       </c>
+      <c r="G155" t="n">
+        <v>50.3300495147705</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-251.7262569459675</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.003626259003117423</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-0.01957875558965571</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-0.0009982351884989899</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3072,6 +5397,21 @@
       <c r="E156" t="n">
         <v>-0.001281680403661842</v>
       </c>
+      <c r="G156" t="n">
+        <v>50.660099029541</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-254.5947385367315</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.003618066747221952</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.01949953449817081</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-0.001115201580821086</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3089,6 +5429,21 @@
       <c r="E157" t="n">
         <v>-0.001231638743485242</v>
       </c>
+      <c r="G157" t="n">
+        <v>50.9901008605957</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-252.9419119655055</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.003629841876562111</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.01958683968943336</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-0.001009631420868517</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3106,6 +5461,21 @@
       <c r="E158" t="n">
         <v>-0.001282352267632756</v>
       </c>
+      <c r="G158" t="n">
+        <v>51.3201007843018</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-256.0227345626631</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.003620509175700319</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0.01950506234998103</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-0.001135123049042736</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3123,6 +5493,21 @@
       <c r="E159" t="n">
         <v>-0.00122861091837108</v>
       </c>
+      <c r="G159" t="n">
+        <v>51.6501502990723</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-253.4881289007604</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.003631271876774666</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.01959213895093813</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-0.001007524290032113</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3140,6 +5525,21 @@
       <c r="E160" t="n">
         <v>-0.001280698959236176</v>
       </c>
+      <c r="G160" t="n">
+        <v>51.9801998138428</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-255.8785159881729</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.003620630288792917</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.01950452443455813</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-0.001124439669023221</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3157,6 +5557,21 @@
       <c r="E161" t="n">
         <v>-0.001226734202314105</v>
       </c>
+      <c r="G161" t="n">
+        <v>52.3102493286133</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-252.490678357894</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.003632049531845706</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.01959570507482651</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-0.0009812252826236847</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3174,6 +5589,21 @@
       <c r="E162" t="n">
         <v>-0.001284738286717257</v>
       </c>
+      <c r="G162" t="n">
+        <v>52.6403007507324</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-255.1425745248443</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.003620719822117589</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.01950106046410575</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-0.001114270011931007</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3191,6 +5621,21 @@
       <c r="E163" t="n">
         <v>-0.001227149241451317</v>
       </c>
+      <c r="G163" t="n">
+        <v>52.9703006744385</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-251.7765480288186</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.003633968007301536</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.01960172081336337</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-0.0009678059557856396</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3208,6 +5653,21 @@
       <c r="E164" t="n">
         <v>-0.001283362701864426</v>
       </c>
+      <c r="G164" t="n">
+        <v>53.3003005981445</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-255.6900885715347</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.003622535897967551</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.01950413760443079</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-0.001136961739131353</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3225,6 +5685,21 @@
       <c r="E165" t="n">
         <v>-0.001227451498036708</v>
       </c>
+      <c r="G165" t="n">
+        <v>53.630350112915</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-252.1372605520486</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.003636819907179303</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.01961017280319339</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-0.0009753291221921704</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3242,6 +5717,21 @@
       <c r="E166" t="n">
         <v>-0.001293452497008603</v>
       </c>
+      <c r="G166" t="n">
+        <v>53.9603996276855</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-256.4725938743002</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.003623927600982738</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.01950698823692406</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-0.001160279967890308</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3259,6 +5749,21 @@
       <c r="E167" t="n">
         <v>-0.001225608268223013</v>
       </c>
+      <c r="G167" t="n">
+        <v>54.2903995513916</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-252.1400388636617</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.003638499235228619</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.01961708626578449</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-0.00096832014805407</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3276,6 +5781,21 @@
       <c r="E168" t="n">
         <v>-0.001294377980981051</v>
       </c>
+      <c r="G168" t="n">
+        <v>54.6204490661621</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-256.6503797621722</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.003624802876639638</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.01950872243847315</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.001161042647772415</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3293,6 +5813,21 @@
       <c r="E169" t="n">
         <v>-0.001225860677646011</v>
       </c>
+      <c r="G169" t="n">
+        <v>54.9505004882812</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-252.1264093054014</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.003640455247915777</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.01962504145084137</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-0.0009616280114519462</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3310,6 +5845,21 @@
       <c r="E170" t="n">
         <v>-0.00129903458193991</v>
       </c>
+      <c r="G170" t="n">
+        <v>55.2805004119873</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-257.0595061759671</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.00362571861847339</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0.01951103896975834</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-0.001175751245113009</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3327,6 +5877,21 @@
       <c r="E171" t="n">
         <v>-0.001225500592231106</v>
       </c>
+      <c r="G171" t="n">
+        <v>55.6105499267578</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-251.6264034384301</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.003641620156210587</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.01963067221859652</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-0.0009517751966908735</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3344,6 +5909,21 @@
       <c r="E172" t="n">
         <v>-0.001302174523427479</v>
       </c>
+      <c r="G172" t="n">
+        <v>55.9405994415283</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-256.3599968258526</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.003625658519351293</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0.01950761053268649</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-0.001171616582646878</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3361,6 +5941,21 @@
       <c r="E173" t="n">
         <v>-0.001216559666384344</v>
       </c>
+      <c r="G173" t="n">
+        <v>56.2705993652344</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-250.1643763184922</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.003644302955219158</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.01964053661047188</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-0.0009227733440257678</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3378,6 +5973,21 @@
       <c r="E174" t="n">
         <v>-0.001288887565327834</v>
       </c>
+      <c r="G174" t="n">
+        <v>56.6006507873535</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-255.8341368333394</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.003628937592575562</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0.01951531014816061</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-0.001170335287198725</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3395,6 +6005,21 @@
       <c r="E175" t="n">
         <v>-0.001204232608433961</v>
       </c>
+      <c r="G175" t="n">
+        <v>56.930700302124</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-250.1534132283364</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.003650419061276684</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.01966189879196303</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-0.0009217467385038248</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3412,6 +6037,21 @@
       <c r="E176" t="n">
         <v>-0.001294920183920346</v>
       </c>
+      <c r="G176" t="n">
+        <v>57.2607002258301</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-257.416976441447</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.003634891419385243</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0.0195329599651866</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-0.001213883425403573</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3429,6 +6069,21 @@
       <c r="E177" t="n">
         <v>-0.001208764864012998</v>
       </c>
+      <c r="G177" t="n">
+        <v>57.5907497406006</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-251.4911414904015</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.003657452847251064</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0.01968916150993491</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-0.0009502646967886578</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3446,6 +6101,21 @@
       <c r="E178" t="n">
         <v>-0.001301673618775599</v>
       </c>
+      <c r="G178" t="n">
+        <v>57.9207992553711</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-258.920506328432</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.003639803807136363</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.01955095436191311</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-0.001248277613090945</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3463,6 +6133,21 @@
       <c r="E179" t="n">
         <v>-0.001208868619079707</v>
       </c>
+      <c r="G179" t="n">
+        <v>58.2507991790771</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-252.0258886636657</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.003661645337120095</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.01970759972564771</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-0.000956754638002042</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3480,6 +6165,21 @@
       <c r="E180" t="n">
         <v>-0.001305067032108893</v>
       </c>
+      <c r="G180" t="n">
+        <v>58.5808486938477</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-258.9485391415164</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.003642027647567895</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.01955915965052698</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-0.001254826260987443</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3497,6 +6197,21 @@
       <c r="E181" t="n">
         <v>-0.001213244294539701</v>
       </c>
+      <c r="G181" t="n">
+        <v>58.9109001159668</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-251.0385266154692</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.003664851243420908</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.01972175550115475</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-0.0009407031845856058</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3514,6 +6229,21 @@
       <c r="E182" t="n">
         <v>-0.001324385293606771</v>
       </c>
+      <c r="G182" t="n">
+        <v>59.2409000396729</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-258.633535944696</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.003644941509309745</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.019566411958921</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-0.001268675315365371</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3531,6 +6261,21 @@
       <c r="E183" t="n">
         <v>-0.001226856463950031</v>
       </c>
+      <c r="G183" t="n">
+        <v>59.5709495544434</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-250.6988461844105</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.00366999319469992</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.01973911923364651</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-0.0009431083637434081</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3548,6 +6293,21 @@
       <c r="E184" t="n">
         <v>-0.001326953943224782</v>
       </c>
+      <c r="G184" t="n">
+        <v>59.9010009765625</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-258.8727509963287</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.003649071670622198</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.01957882200410958</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-0.001279683458516996</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3565,6 +6325,21 @@
       <c r="E185" t="n">
         <v>-0.001215969949698415</v>
       </c>
+      <c r="G185" t="n">
+        <v>60.2310009002686</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-250.6600743697218</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.003673922486437202</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.01975524072622663</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-0.0009324425587797682</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3582,6 +6357,21 @@
       <c r="E186" t="n">
         <v>-0.001323063439393889</v>
       </c>
+      <c r="G186" t="n">
+        <v>60.5610504150391</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-259.4197430882558</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.003651434820712687</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.0195887506419967</v>
+      </c>
+      <c r="K186" t="n">
+        <v>-0.00128792398631708</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3599,6 +6389,21 @@
       <c r="E187" t="n">
         <v>-0.001213359471199684</v>
       </c>
+      <c r="G187" t="n">
+        <v>60.8910999298096</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-251.2781780436232</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.003676857246097041</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.01977056925076406</v>
+      </c>
+      <c r="K187" t="n">
+        <v>-0.0009403192791829999</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3616,6 +6421,21 @@
       <c r="E188" t="n">
         <v>-0.001327241484749072</v>
       </c>
+      <c r="G188" t="n">
+        <v>61.2210998535156</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-260.4922673917191</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.003653423371174642</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.01959869347777799</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-0.001317023941030107</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3633,6 +6453,21 @@
       <c r="E189" t="n">
         <v>-0.001218417068154985</v>
       </c>
+      <c r="G189" t="n">
+        <v>61.5511512756348</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-251.4681675917791</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.003678810122283533</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.01978238334611168</v>
+      </c>
+      <c r="K189" t="n">
+        <v>-0.0009474883835136623</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3650,6 +6485,21 @@
       <c r="E190" t="n">
         <v>-0.001346648579839284</v>
       </c>
+      <c r="G190" t="n">
+        <v>61.8812007904053</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-260.5952266003379</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.003653665687089374</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.01959940359137356</v>
+      </c>
+      <c r="K190" t="n">
+        <v>-0.001334963849242914</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3667,6 +6517,21 @@
       <c r="E191" t="n">
         <v>-0.00122665693151154</v>
       </c>
+      <c r="G191" t="n">
+        <v>62.2112007141113</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-250.0743878479408</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.003678862717824591</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0.01978323595206544</v>
+      </c>
+      <c r="K191" t="n">
+        <v>-0.0009251887663398866</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3684,6 +6549,21 @@
       <c r="E192" t="n">
         <v>-0.001344582807909902</v>
       </c>
+      <c r="G192" t="n">
+        <v>62.5412502288818</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-258.5222188523614</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.003652088267129457</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.01958889484935229</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-0.001296263558677414</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3701,6 +6581,21 @@
       <c r="E193" t="n">
         <v>-0.001210116792587451</v>
       </c>
+      <c r="G193" t="n">
+        <v>62.8712997436523</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-247.7113287655305</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.003679266469945971</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.01978073075279977</v>
+      </c>
+      <c r="K193" t="n">
+        <v>-0.000871351613490927</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3718,6 +6613,21 @@
       <c r="E194" t="n">
         <v>-0.001326847434566676</v>
       </c>
+      <c r="G194" t="n">
+        <v>63.2012996673584</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-256.9394624774576</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.003653994209872086</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0.01959005785127431</v>
+      </c>
+      <c r="K194" t="n">
+        <v>-0.001265139279714535</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3735,6 +6645,21 @@
       <c r="E195" t="n">
         <v>-0.001196975733536082</v>
       </c>
+      <c r="G195" t="n">
+        <v>63.5313491821289</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-247.189717249481</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.003683046386293011</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.01979060598938106</v>
+      </c>
+      <c r="K195" t="n">
+        <v>-0.0008604384832686166</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3752,6 +6677,21 @@
       <c r="E196" t="n">
         <v>-0.001324574317303555</v>
       </c>
+      <c r="G196" t="n">
+        <v>63.8613986968994</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-257.8239553726945</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.003658343561504675</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.0196030099427658</v>
+      </c>
+      <c r="K196" t="n">
+        <v>-0.001285951650851491</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3769,6 +6709,21 @@
       <c r="E197" t="n">
         <v>-0.001200344366556079</v>
       </c>
+      <c r="G197" t="n">
+        <v>64.1913986206055</v>
+      </c>
+      <c r="H197" t="n">
+        <v>-248.707841039406</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.003687709674708593</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.0198079160772536</v>
+      </c>
+      <c r="K197" t="n">
+        <v>-0.0008936906790772299</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3786,6 +6741,21 @@
       <c r="E198" t="n">
         <v>-0.001328769680606597</v>
       </c>
+      <c r="G198" t="n">
+        <v>64.5214500427246</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-259.5330560711717</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.003662191827349224</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.01961987252255199</v>
+      </c>
+      <c r="K198" t="n">
+        <v>-0.001326458955699571</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3803,6 +6773,21 @@
       <c r="E199" t="n">
         <v>-0.00120152210665044</v>
       </c>
+      <c r="G199" t="n">
+        <v>64.85150146484381</v>
+      </c>
+      <c r="H199" t="n">
+        <v>-249.6985904588268</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.003690497905883883</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.01982319592728467</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-0.0009193014585381057</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3820,6 +6805,21 @@
       <c r="E200" t="n">
         <v>-0.001334684039507167</v>
       </c>
+      <c r="G200" t="n">
+        <v>65.1814994812012</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-259.7954138883567</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.00366361669865873</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.01962900871071972</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.001343135703922422</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3837,6 +6837,21 @@
       <c r="E201" t="n">
         <v>-0.001210641727556606</v>
       </c>
+      <c r="G201" t="n">
+        <v>65.511547088623</v>
+      </c>
+      <c r="H201" t="n">
+        <v>-249.0202591227888</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.003691887557913904</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.01983291557137446</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.0009128562740479823</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3854,6 +6869,21 @@
       <c r="E202" t="n">
         <v>-0.001345061968583613</v>
       </c>
+      <c r="G202" t="n">
+        <v>65.8415985107422</v>
+      </c>
+      <c r="H202" t="n">
+        <v>-258.9026270574144</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.003664680430705243</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.01963446345008724</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-0.001330052305853643</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3871,6 +6901,21 @@
       <c r="E203" t="n">
         <v>-0.001212049274483582</v>
       </c>
+      <c r="G203" t="n">
+        <v>66.1716003417969</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-248.5086592352496</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0.003693941177929224</v>
+      </c>
+      <c r="J203" t="n">
+        <v>-0.0198407208413476</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-0.0009023226840609008</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3888,6 +6933,21 @@
       <c r="E204" t="n">
         <v>-0.001336929980974454</v>
       </c>
+      <c r="G204" t="n">
+        <v>66.501651763916</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-258.6522434148505</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0.003667535898816535</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0.01964600699871221</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-0.001321783206678366</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3905,6 +6965,21 @@
       <c r="E205" t="n">
         <v>-0.001201273733696989</v>
       </c>
+      <c r="G205" t="n">
+        <v>66.8316993713379</v>
+      </c>
+      <c r="H205" t="n">
+        <v>-248.5165736294269</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.003695696641902262</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0.01984641033921735</v>
+      </c>
+      <c r="K205" t="n">
+        <v>-0.0009026242561346559</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3922,6 +6997,21 @@
       <c r="E206" t="n">
         <v>-0.001333927070517141</v>
       </c>
+      <c r="G206" t="n">
+        <v>67.1616973876953</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-258.6143510333092</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0.003669334776975113</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0.01965379335953186</v>
+      </c>
+      <c r="K206" t="n">
+        <v>-0.001322500091360347</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3939,6 +7029,21 @@
       <c r="E207" t="n">
         <v>-0.001205700649630242</v>
       </c>
+      <c r="G207" t="n">
+        <v>67.4917488098145</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-248.5094358006266</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.003696895270767482</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.01984997050778908</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-0.000901944198968839</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3956,6 +7061,21 @@
       <c r="E208" t="n">
         <v>-0.001336499061164248</v>
       </c>
+      <c r="G208" t="n">
+        <v>67.82180023193359</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-258.0002304447975</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.003670736072745317</v>
+      </c>
+      <c r="J208" t="n">
+        <v>-0.01966057851443316</v>
+      </c>
+      <c r="K208" t="n">
+        <v>-0.001297504205855383</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3973,6 +7093,21 @@
       <c r="E209" t="n">
         <v>-0.001207956498362611</v>
       </c>
+      <c r="G209" t="n">
+        <v>68.1518020629883</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-247.9976670988664</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-0.003695864924935911</v>
+      </c>
+      <c r="J209" t="n">
+        <v>-0.01984457933244451</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-0.0008913948460970838</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3990,6 +7125,21 @@
       <c r="E210" t="n">
         <v>-0.001335953406354372</v>
       </c>
+      <c r="G210" t="n">
+        <v>68.4818496704102</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-256.7452711428799</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.003670458521278987</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-0.01966157871318923</v>
+      </c>
+      <c r="K210" t="n">
+        <v>-0.001261273600796284</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4007,6 +7157,21 @@
       <c r="E211" t="n">
         <v>-0.001209570739107818</v>
       </c>
+      <c r="G211" t="n">
+        <v>68.811897277832</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-247.0360796514231</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.003693232488480515</v>
+      </c>
+      <c r="J211" t="n">
+        <v>-0.01982999647424625</v>
+      </c>
+      <c r="K211" t="n">
+        <v>-0.0008783048799760551</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4024,6 +7189,21 @@
       <c r="E212" t="n">
         <v>-0.001329551291918371</v>
       </c>
+      <c r="G212" t="n">
+        <v>69.1418991088867</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-255.0969140305019</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.003668918023610272</v>
+      </c>
+      <c r="J212" t="n">
+        <v>-0.01965635827029744</v>
+      </c>
+      <c r="K212" t="n">
+        <v>-0.001233171118600594</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4041,6 +7221,21 @@
       <c r="E213" t="n">
         <v>-0.001200613453169458</v>
       </c>
+      <c r="G213" t="n">
+        <v>69.4719505310059</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-245.6647202957899</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-0.003691644948015848</v>
+      </c>
+      <c r="J213" t="n">
+        <v>-0.01981630860114295</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-0.0008640718902771643</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4058,6 +7253,21 @@
       <c r="E214" t="n">
         <v>-0.001306095990869733</v>
       </c>
+      <c r="G214" t="n">
+        <v>69.802001953125</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-253.5369781058698</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-0.003671102637423941</v>
+      </c>
+      <c r="J214" t="n">
+        <v>-0.01966145615964186</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-0.001202784911881329</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4075,6 +7285,21 @@
       <c r="E215" t="n">
         <v>-0.001194410456085247</v>
       </c>
+      <c r="G215" t="n">
+        <v>70.13199996948239</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-245.5634023583484</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-0.0036935063841522</v>
+      </c>
+      <c r="J215" t="n">
+        <v>-0.01981264571894056</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-0.0008755476647684863</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4092,6 +7317,21 @@
       <c r="E216" t="n">
         <v>-0.00129857252105558</v>
       </c>
+      <c r="G216" t="n">
+        <v>70.4620475769043</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-253.6869822769892</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-0.00367578193516293</v>
+      </c>
+      <c r="J216" t="n">
+        <v>-0.01967662109403382</v>
+      </c>
+      <c r="K216" t="n">
+        <v>-0.001203210593961311</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4109,6 +7349,21 @@
       <c r="E217" t="n">
         <v>-0.001208198808814175</v>
       </c>
+      <c r="G217" t="n">
+        <v>70.79209899902339</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-247.0201440401459</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-0.003696135278056391</v>
+      </c>
+      <c r="J217" t="n">
+        <v>-0.01981531859110199</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-0.0009187605150762305</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4126,6 +7381,21 @@
       <c r="E218" t="n">
         <v>-0.001306594230237882</v>
       </c>
+      <c r="G218" t="n">
+        <v>71.1221008300781</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-254.350838032481</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.003679679516221181</v>
+      </c>
+      <c r="J218" t="n">
+        <v>-0.01969525996339296</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-0.001215181043109752</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4143,6 +7413,21 @@
       <c r="E219" t="n">
         <v>-0.00121618181762071</v>
       </c>
+      <c r="G219" t="n">
+        <v>71.45215225219729</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-247.6834154346943</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-0.003696756190817674</v>
+      </c>
+      <c r="J219" t="n">
+        <v>-0.01981612492252258</v>
+      </c>
+      <c r="K219" t="n">
+        <v>-0.0009453728354285816</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4160,6 +7445,21 @@
       <c r="E220" t="n">
         <v>-0.001304326515273135</v>
       </c>
+      <c r="G220" t="n">
+        <v>71.7821998596191</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-253.6582056301397</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-0.003681586935163805</v>
+      </c>
+      <c r="J220" t="n">
+        <v>-0.01970866322526469</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-0.001205821406457728</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4177,6 +7477,21 @@
       <c r="E221" t="n">
         <v>-0.001223840465342447</v>
       </c>
+      <c r="G221" t="n">
+        <v>72.11219787597661</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-247.0666718617528</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-0.003696813581345962</v>
+      </c>
+      <c r="J221" t="n">
+        <v>-0.01981567285360965</v>
+      </c>
+      <c r="K221" t="n">
+        <v>-0.0009555629812143948</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4194,6 +7509,21 @@
       <c r="E222" t="n">
         <v>-0.001300244920946965</v>
       </c>
+      <c r="G222" t="n">
+        <v>72.4422492980957</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-252.2824656555839</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.003684141048258691</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-0.01972376087910935</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-0.00118118495054923</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4211,6 +7541,21 @@
       <c r="E223" t="n">
         <v>-0.001226377089230107</v>
       </c>
+      <c r="G223" t="n">
+        <v>72.7723007202148</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-246.8812165627822</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.003698303605624182</v>
+      </c>
+      <c r="J223" t="n">
+        <v>-0.01981733677550259</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-0.0009636156793872535</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4228,6 +7573,21 @@
       <c r="E224" t="n">
         <v>-0.001291607622466652</v>
       </c>
+      <c r="G224" t="n">
+        <v>73.1023025512695</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-251.8321362602395</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.003688688471222354</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-0.01974515249026347</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-0.001165303861878594</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4245,6 +7605,21 @@
       <c r="E225" t="n">
         <v>-0.001231001914684823</v>
       </c>
+      <c r="G225" t="n">
+        <v>73.43235015869141</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-247.1170047901154</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.003700146683050128</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-0.01982018958499145</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-0.0009842916750450379</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4262,6 +7637,21 @@
       <c r="E226" t="n">
         <v>-0.001293210009618573</v>
       </c>
+      <c r="G226" t="n">
+        <v>73.7623977661133</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-251.3053778538433</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.003692830323000554</v>
+      </c>
+      <c r="J226" t="n">
+        <v>-0.01976481035725884</v>
+      </c>
+      <c r="K226" t="n">
+        <v>-0.001150558480971352</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4279,6 +7669,21 @@
       <c r="E227" t="n">
         <v>-0.001243088566408949</v>
       </c>
+      <c r="G227" t="n">
+        <v>74.092399597168</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-247.7370878261219</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.003701731858174428</v>
+      </c>
+      <c r="J227" t="n">
+        <v>-0.01982220762266949</v>
+      </c>
+      <c r="K227" t="n">
+        <v>-0.001010381313751232</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4296,6 +7701,21 @@
       <c r="E228" t="n">
         <v>-0.001290950144971014</v>
       </c>
+      <c r="G228" t="n">
+        <v>74.4224510192871</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-251.1354454571894</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.003695900195485254</v>
+      </c>
+      <c r="J228" t="n">
+        <v>-0.01978318377459869</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-0.001146637571825116</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4313,6 +7733,21 @@
       <c r="E229" t="n">
         <v>-0.001245154471782401</v>
       </c>
+      <c r="G229" t="n">
+        <v>74.75250244140619</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-248.0985047622174</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-0.003701368874024311</v>
+      </c>
+      <c r="J229" t="n">
+        <v>-0.01981824997693201</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-0.001037646458614203</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4330,6 +7765,21 @@
       <c r="E230" t="n">
         <v>-0.001284682594077156</v>
       </c>
+      <c r="G230" t="n">
+        <v>75.0825004577637</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-250.4357218473948</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-0.003697788164447042</v>
+      </c>
+      <c r="J230" t="n">
+        <v>-0.01979538719220026</v>
+      </c>
+      <c r="K230" t="n">
+        <v>-0.00113597032152758</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4347,6 +7797,21 @@
       <c r="E231" t="n">
         <v>-0.001256637229391096</v>
       </c>
+      <c r="G231" t="n">
+        <v>75.4125480651855</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-247.8874169398474</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-0.003700608129842148</v>
+      </c>
+      <c r="J231" t="n">
+        <v>-0.01980879707965493</v>
+      </c>
+      <c r="K231" t="n">
+        <v>-0.001066953833544954</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4364,6 +7829,21 @@
       <c r="E232" t="n">
         <v>-0.001270184524966262</v>
       </c>
+      <c r="G232" t="n">
+        <v>75.7425994873047</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-248.7095407940557</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-0.003698893219815513</v>
+      </c>
+      <c r="J232" t="n">
+        <v>-0.01979989268420502</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-0.001118224502859536</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4381,6 +7861,21 @@
       <c r="E233" t="n">
         <v>-0.001252513113629067</v>
       </c>
+      <c r="G233" t="n">
+        <v>76.0726013183594</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-246.345886175721</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-0.003699814976111218</v>
+      </c>
+      <c r="J233" t="n">
+        <v>-0.01979188794050408</v>
+      </c>
+      <c r="K233" t="n">
+        <v>-0.001055886525931899</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4398,6 +7893,21 @@
       <c r="E234" t="n">
         <v>-0.00125533225965446</v>
       </c>
+      <c r="G234" t="n">
+        <v>76.4026527404785</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-247.0781871692271</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-0.003701834345897043</v>
+      </c>
+      <c r="J234" t="n">
+        <v>-0.01980240142077156</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-0.001086375333908285</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4415,6 +7925,21 @@
       <c r="E235" t="n">
         <v>-0.001256711390321227</v>
       </c>
+      <c r="G235" t="n">
+        <v>76.7327003479004</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-246.3051702658399</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-0.003702780213449082</v>
+      </c>
+      <c r="J235" t="n">
+        <v>-0.01978564397740891</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-0.00106964350727121</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4432,6 +7957,21 @@
       <c r="E236" t="n">
         <v>-0.001261868049455515</v>
       </c>
+      <c r="G236" t="n">
+        <v>77.0626983642578</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-247.4814758701334</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-0.00370719992181437</v>
+      </c>
+      <c r="J236" t="n">
+        <v>-0.01981273336225673</v>
+      </c>
+      <c r="K236" t="n">
+        <v>-0.001098974360301439</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4449,6 +7989,21 @@
       <c r="E237" t="n">
         <v>-0.001275998034785361</v>
       </c>
+      <c r="G237" t="n">
+        <v>77.392749786377</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-247.6659483944813</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-0.003705677193812071</v>
+      </c>
+      <c r="J237" t="n">
+        <v>-0.01978253743393835</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-0.001116250422710541</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4466,6 +8021,21 @@
       <c r="E238" t="n">
         <v>-0.001270219605886114</v>
       </c>
+      <c r="G238" t="n">
+        <v>77.72280120849609</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-247.8982865874264</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-0.003709701771759858</v>
+      </c>
+      <c r="J238" t="n">
+        <v>-0.01981622855413942</v>
+      </c>
+      <c r="K238" t="n">
+        <v>-0.001115018794011501</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4483,6 +8053,21 @@
       <c r="E239" t="n">
         <v>-0.001283113633005119</v>
       </c>
+      <c r="G239" t="n">
+        <v>78.0527992248535</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-247.5533152233708</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-0.003704980357104995</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-0.0197694912195456</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-0.001130822812364667</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4500,6 +8085,21 @@
       <c r="E240" t="n">
         <v>-0.001268729502387279</v>
       </c>
+      <c r="G240" t="n">
+        <v>78.3828468322754</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-246.6315388278768</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.003709264764276983</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-0.01980845255902597</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-0.001098139501363721</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4517,6 +8117,21 @@
       <c r="E241" t="n">
         <v>-0.001293304122507223</v>
       </c>
+      <c r="G241" t="n">
+        <v>78.7128982543945</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-246.4977391656112</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-0.00370363911271144</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-0.01975307236012367</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-0.001131425275534988</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4534,6 +8149,21 @@
       <c r="E242" t="n">
         <v>-0.001270720995380252</v>
       </c>
+      <c r="G242" t="n">
+        <v>79.0429000854492</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-245.368979013089</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-0.003709884749683554</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-0.01980230455149627</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-0.001082739499975222</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4551,6 +8181,21 @@
       <c r="E243" t="n">
         <v>-0.001296981347010342</v>
       </c>
+      <c r="G243" t="n">
+        <v>79.37290191650391</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-246.2799602448942</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-0.003703721205156582</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-0.01973768119257313</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-0.001145510272908174</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4568,6 +8213,21 @@
       <c r="E244" t="n">
         <v>-0.001264882295664027</v>
       </c>
+      <c r="G244" t="n">
+        <v>79.7029495239258</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-244.9594582298763</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-0.003711450421113564</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-0.01979646374437616</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-0.001082703809749721</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4585,6 +8245,21 @@
       <c r="E245" t="n">
         <v>-0.001299353771763876</v>
       </c>
+      <c r="G245" t="n">
+        <v>80.0329971313477</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-245.993704074995</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-0.00370327446753695</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-0.01971884189596107</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-0.001159531277108172</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4602,6 +8277,21 @@
       <c r="E246" t="n">
         <v>-0.001265077246934158</v>
       </c>
+      <c r="G246" t="n">
+        <v>80.3630485534668</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-244.0942971419178</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.00371145170887966</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-0.01978172369599958</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-0.001076767107625052</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4619,6 +8309,21 @@
       <c r="E247" t="n">
         <v>-0.001307103022547522</v>
       </c>
+      <c r="G247" t="n">
+        <v>80.69309997558589</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-245.2237638564263</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-0.00370171480034147</v>
+      </c>
+      <c r="J247" t="n">
+        <v>-0.01969333768551484</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-0.001157411685944591</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4636,6 +8341,21 @@
       <c r="E248" t="n">
         <v>-0.001265509024273451</v>
       </c>
+      <c r="G248" t="n">
+        <v>81.0231018066406</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-243.0906619135745</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-0.003709167464141191</v>
+      </c>
+      <c r="J248" t="n">
+        <v>-0.0197549988513284</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-0.001064573081990394</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4653,6 +8373,21 @@
       <c r="E249" t="n">
         <v>-0.001302678358995591</v>
       </c>
+      <c r="G249" t="n">
+        <v>81.35315322875979</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-244.2217295121971</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-0.003697810249902419</v>
+      </c>
+      <c r="J249" t="n">
+        <v>-0.01965778606444567</v>
+      </c>
+      <c r="K249" t="n">
+        <v>-0.001147056830681842</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4670,6 +8405,21 @@
       <c r="E250" t="n">
         <v>-0.00126045334881594</v>
       </c>
+      <c r="G250" t="n">
+        <v>81.6832008361816</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-241.9100107093535</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-0.003705069921174998</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-0.01971894751354913</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-0.001051687116038994</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4687,6 +8437,21 @@
       <c r="E251" t="n">
         <v>-0.001303813820464703</v>
       </c>
+      <c r="G251" t="n">
+        <v>82.01319885253911</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-242.6973114676329</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-0.003693310126527137</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-0.019618034659781</v>
+      </c>
+      <c r="K251" t="n">
+        <v>-0.001135074232353461</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4704,6 +8469,21 @@
       <c r="E252" t="n">
         <v>-0.001255785207365047</v>
       </c>
+      <c r="G252" t="n">
+        <v>82.34320068359381</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-240.0501205303424</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-0.003700600647493524</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-0.01967691071086067</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-0.001043407659239881</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4721,6 +8501,21 @@
       <c r="E253" t="n">
         <v>-0.00129702058725599</v>
       </c>
+      <c r="G253" t="n">
+        <v>82.6732521057129</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-241.3004833568142</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-0.003689385241295419</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-0.01957390362984964</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-0.00114298764191424</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4738,6 +8533,21 @@
       <c r="E254" t="n">
         <v>-0.001252558897842528</v>
       </c>
+      <c r="G254" t="n">
+        <v>83.00329971313479</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-238.8209420605162</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-0.003699153613565492</v>
+      </c>
+      <c r="J254" t="n">
+        <v>-0.01964105448499456</v>
+      </c>
+      <c r="K254" t="n">
+        <v>-0.00104218295886179</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4755,6 +8565,21 @@
       <c r="E255" t="n">
         <v>-0.001301408168338384</v>
       </c>
+      <c r="G255" t="n">
+        <v>83.3333473205566</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-241.0967571531163</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-0.003689233462899501</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-0.01954363516068259</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-0.001162303630912502</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4772,6 +8597,21 @@
       <c r="E256" t="n">
         <v>-0.001252943706579654</v>
       </c>
+      <c r="G256" t="n">
+        <v>83.6633987426758</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-238.8811997850245</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-0.003699229079520731</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-0.01961386927437154</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-0.001059692090751781</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4789,6 +8629,21 @@
       <c r="E257" t="n">
         <v>-0.001305721220567634</v>
       </c>
+      <c r="G257" t="n">
+        <v>83.9934005737305</v>
+      </c>
+      <c r="H257" t="n">
+        <v>-241.3627247558544</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-0.003687565372691045</v>
+      </c>
+      <c r="J257" t="n">
+        <v>-0.01951135068946543</v>
+      </c>
+      <c r="K257" t="n">
+        <v>-0.001188860865386419</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4806,6 +8661,21 @@
       <c r="E258" t="n">
         <v>-0.001253755415134628</v>
       </c>
+      <c r="G258" t="n">
+        <v>84.3234024047852</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-238.3785598099736</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-0.003695571555571218</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-0.01957801802662092</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-0.001065966532360145</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4823,6 +8693,21 @@
       <c r="E259" t="n">
         <v>-0.001307917937980262</v>
       </c>
+      <c r="G259" t="n">
+        <v>84.653450012207</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-240.3331853911703</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-0.003681476750703926</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.01946628237473835</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-0.001188327780792751</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4840,6 +8725,21 @@
       <c r="E260" t="n">
         <v>-0.001255993135952506</v>
       </c>
+      <c r="G260" t="n">
+        <v>84.98349761962891</v>
+      </c>
+      <c r="H260" t="n">
+        <v>-236.5825086325177</v>
+      </c>
+      <c r="I260" t="n">
+        <v>-0.003689160066794528</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-0.01953356235975299</v>
+      </c>
+      <c r="K260" t="n">
+        <v>-0.001051608396571098</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4857,6 +8757,21 @@
       <c r="E261" t="n">
         <v>-0.001316454365409241</v>
       </c>
+      <c r="G261" t="n">
+        <v>85.313549041748</v>
+      </c>
+      <c r="H261" t="n">
+        <v>-238.7786805216454</v>
+      </c>
+      <c r="I261" t="n">
+        <v>-0.003673591704977583</v>
+      </c>
+      <c r="J261" t="n">
+        <v>-0.01941151979905914</v>
+      </c>
+      <c r="K261" t="n">
+        <v>-0.001190800706501005</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4874,6 +8789,21 @@
       <c r="E262" t="n">
         <v>-0.001261255072949902</v>
       </c>
+      <c r="G262" t="n">
+        <v>85.6436004638672</v>
+      </c>
+      <c r="H262" t="n">
+        <v>-234.9000373180525</v>
+      </c>
+      <c r="I262" t="n">
+        <v>-0.003682594860193933</v>
+      </c>
+      <c r="J262" t="n">
+        <v>-0.01948529151716347</v>
+      </c>
+      <c r="K262" t="n">
+        <v>-0.001050722595066385</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4891,6 +8821,21 @@
       <c r="E263" t="n">
         <v>-0.001319960728070613</v>
       </c>
+      <c r="G263" t="n">
+        <v>85.9736022949219</v>
+      </c>
+      <c r="H263" t="n">
+        <v>-238.1593463077641</v>
+      </c>
+      <c r="I263" t="n">
+        <v>-0.003666541058975938</v>
+      </c>
+      <c r="J263" t="n">
+        <v>-0.01935779640432688</v>
+      </c>
+      <c r="K263" t="n">
+        <v>-0.001224482101029105</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4908,6 +8853,21 @@
       <c r="E264" t="n">
         <v>-0.001266045426466943</v>
       </c>
+      <c r="G264" t="n">
+        <v>86.30364990234381</v>
+      </c>
+      <c r="H264" t="n">
+        <v>-233.9846678842075</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-0.003675858404181205</v>
+      </c>
+      <c r="J264" t="n">
+        <v>-0.01943376004979479</v>
+      </c>
+      <c r="K264" t="n">
+        <v>-0.001067159913557806</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4925,6 +8885,21 @@
       <c r="E265" t="n">
         <v>-0.001334670160859461</v>
       </c>
+      <c r="G265" t="n">
+        <v>86.6336975097656</v>
+      </c>
+      <c r="H265" t="n">
+        <v>-237.7228135083971</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-0.00365738819823735</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-0.01929682839286878</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-0.001259464895870884</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4942,6 +8917,21 @@
       <c r="E266" t="n">
         <v>-0.001270478059459052</v>
       </c>
+      <c r="G266" t="n">
+        <v>86.9636993408203</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-232.8858216805408</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-0.003665771161652491</v>
+      </c>
+      <c r="J266" t="n">
+        <v>-0.01937169785212902</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-0.001077166954130328</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4959,6 +8949,21 @@
       <c r="E267" t="n">
         <v>-0.001341741628491101</v>
       </c>
+      <c r="G267" t="n">
+        <v>87.293701171875</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-236.6933775823302</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-0.003645048955734051</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-0.01922410763602904</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-0.001276767381987411</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4976,6 +8981,21 @@
       <c r="E268" t="n">
         <v>-0.001274718033464977</v>
       </c>
+      <c r="G268" t="n">
+        <v>87.6237525939941</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-231.4712184546009</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-0.003652714040793685</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-0.01929900154555898</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-0.00108180308057249</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4993,6 +9013,21 @@
       <c r="E269" t="n">
         <v>-0.001351797599211601</v>
       </c>
+      <c r="G269" t="n">
+        <v>87.953800201416</v>
+      </c>
+      <c r="H269" t="n">
+        <v>-235.7586134239046</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-0.003629348598085366</v>
+      </c>
+      <c r="J269" t="n">
+        <v>-0.01914027904842847</v>
+      </c>
+      <c r="K269" t="n">
+        <v>-0.001303771367867929</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5010,6 +9045,21 @@
       <c r="E270" t="n">
         <v>-0.001283331017720011</v>
       </c>
+      <c r="G270" t="n">
+        <v>88.28379821777339</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-229.9149057341563</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-0.003635925098289233</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.01921405711160334</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-0.001090049061588341</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5027,6 +9077,21 @@
       <c r="E271" t="n">
         <v>-0.00136452597081692</v>
       </c>
+      <c r="G271" t="n">
+        <v>88.61384963989261</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-234.2223442937112</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-0.003609719951108277</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-0.01904079537712993</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-0.001321508934024763</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5044,6 +9109,21 @@
       <c r="E272" t="n">
         <v>-0.001283413569926335</v>
       </c>
+      <c r="G272" t="n">
+        <v>88.9439010620117</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-227.5849112767841</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-0.003617276737144004</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-0.01912143556375949</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-0.001083162666421758</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5061,6 +9141,21 @@
       <c r="E273" t="n">
         <v>-0.001359823703544142</v>
       </c>
+      <c r="G273" t="n">
+        <v>89.27390289306641</v>
+      </c>
+      <c r="H273" t="n">
+        <v>-232.4917597436519</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-0.003590359966080411</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-0.01893949182828061</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-0.001338391585061654</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5078,6 +9173,21 @@
       <c r="E274" t="n">
         <v>-0.001279695340427764</v>
       </c>
+      <c r="G274" t="n">
+        <v>89.6039505004883</v>
+      </c>
+      <c r="H274" t="n">
+        <v>-225.9333710895392</v>
+      </c>
+      <c r="I274" t="n">
+        <v>-0.003599524267485433</v>
+      </c>
+      <c r="J274" t="n">
+        <v>-0.01902764550546287</v>
+      </c>
+      <c r="K274" t="n">
+        <v>-0.001095541475182753</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5095,6 +9205,21 @@
       <c r="E275" t="n">
         <v>-0.001375607637731018</v>
       </c>
+      <c r="G275" t="n">
+        <v>89.9339981079102</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-232.1069421625839</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-0.003570993136380245</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-0.0188351056271434</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-0.001393593601750883</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5112,6 +9237,21 @@
       <c r="E276" t="n">
         <v>-0.001295246024754696</v>
       </c>
+      <c r="G276" t="n">
+        <v>90.2639999389648</v>
+      </c>
+      <c r="H276" t="n">
+        <v>-225.1330210005237</v>
+      </c>
+      <c r="I276" t="n">
+        <v>-0.003579060707762608</v>
+      </c>
+      <c r="J276" t="n">
+        <v>-0.01892378500700548</v>
+      </c>
+      <c r="K276" t="n">
+        <v>-0.001137288727557887</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5129,6 +9269,21 @@
       <c r="E277" t="n">
         <v>-0.001394056720092652</v>
       </c>
+      <c r="G277" t="n">
+        <v>90.594051361084</v>
+      </c>
+      <c r="H277" t="n">
+        <v>-231.4490592694886</v>
+      </c>
+      <c r="I277" t="n">
+        <v>-0.003545759735364134</v>
+      </c>
+      <c r="J277" t="n">
+        <v>-0.01871205143668064</v>
+      </c>
+      <c r="K277" t="n">
+        <v>-0.001443376697559453</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5146,6 +9301,21 @@
       <c r="E278" t="n">
         <v>-0.001307986740351509</v>
       </c>
+      <c r="G278" t="n">
+        <v>90.9241027832031</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-223.6311596072389</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-0.003549812434925964</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-0.01878902544866368</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-0.00116387438396548</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5163,6 +9333,21 @@
       <c r="E279" t="n">
         <v>-0.001411918649867688</v>
       </c>
+      <c r="G279" t="n">
+        <v>91.2541007995605</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-229.6452991222969</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-0.003510995837604557</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-0.01855492461111972</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-0.001475187919088053</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5180,6 +9365,21 @@
       <c r="E280" t="n">
         <v>-0.001328129512436834</v>
       </c>
+      <c r="G280" t="n">
+        <v>91.58414840698239</v>
+      </c>
+      <c r="H280" t="n">
+        <v>-220.9243803449935</v>
+      </c>
+      <c r="I280" t="n">
+        <v>-0.003512390206351055</v>
+      </c>
+      <c r="J280" t="n">
+        <v>-0.01862561493195833</v>
+      </c>
+      <c r="K280" t="n">
+        <v>-0.001175838327971811</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5197,6 +9397,21 @@
       <c r="E281" t="n">
         <v>-0.001449361350876871</v>
       </c>
+      <c r="G281" t="n">
+        <v>91.91419982910161</v>
+      </c>
+      <c r="H281" t="n">
+        <v>-227.5327664134087</v>
+      </c>
+      <c r="I281" t="n">
+        <v>-0.003469909131139085</v>
+      </c>
+      <c r="J281" t="n">
+        <v>-0.01837316714302752</v>
+      </c>
+      <c r="K281" t="n">
+        <v>-0.001519279278202017</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5214,6 +9429,21 @@
       <c r="E282" t="n">
         <v>-0.001362348176050304</v>
       </c>
+      <c r="G282" t="n">
+        <v>92.24420166015619</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-218.5291260035248</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-0.003470350020379601</v>
+      </c>
+      <c r="J282" t="n">
+        <v>-0.0184400888956451</v>
+      </c>
+      <c r="K282" t="n">
+        <v>-0.001211152871377848</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5231,6 +9461,21 @@
       <c r="E283" t="n">
         <v>-0.001475444860344679</v>
       </c>
+      <c r="G283" t="n">
+        <v>92.5742530822754</v>
+      </c>
+      <c r="H283" t="n">
+        <v>-225.4687352034904</v>
+      </c>
+      <c r="I283" t="n">
+        <v>-0.003423596620378419</v>
+      </c>
+      <c r="J283" t="n">
+        <v>-0.01816607221167998</v>
+      </c>
+      <c r="K283" t="n">
+        <v>-0.001569714705949041</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5248,6 +9493,21 @@
       <c r="E284" t="n">
         <v>-0.001377981072292995</v>
       </c>
+      <c r="G284" t="n">
+        <v>92.90430068969729</v>
+      </c>
+      <c r="H284" t="n">
+        <v>-216.1342070932535</v>
+      </c>
+      <c r="I284" t="n">
+        <v>-0.003418875540146791</v>
+      </c>
+      <c r="J284" t="n">
+        <v>-0.01822224585910059</v>
+      </c>
+      <c r="K284" t="n">
+        <v>-0.001240057796037799</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5265,6 +9525,21 @@
       <c r="E285" t="n">
         <v>-0.001500685911562509</v>
       </c>
+      <c r="G285" t="n">
+        <v>93.2342987060547</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-223.4599188228698</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-0.003364911941683075</v>
+      </c>
+      <c r="J285" t="n">
+        <v>-0.0179263624748348</v>
+      </c>
+      <c r="K285" t="n">
+        <v>-0.001612525065889038</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5282,6 +9557,21 @@
       <c r="E286" t="n">
         <v>-0.001406949304945675</v>
       </c>
+      <c r="G286" t="n">
+        <v>93.5643501281738</v>
+      </c>
+      <c r="H286" t="n">
+        <v>-213.7777115858279</v>
+      </c>
+      <c r="I286" t="n">
+        <v>-0.003355488975037954</v>
+      </c>
+      <c r="J286" t="n">
+        <v>-0.01796629711988435</v>
+      </c>
+      <c r="K286" t="n">
+        <v>-0.001283073579359517</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5299,6 +9589,21 @@
       <c r="E287" t="n">
         <v>-0.001543531868025948</v>
       </c>
+      <c r="G287" t="n">
+        <v>93.894401550293</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-221.493629740343</v>
+      </c>
+      <c r="I287" t="n">
+        <v>-0.003295299345603869</v>
+      </c>
+      <c r="J287" t="n">
+        <v>-0.01764464195077856</v>
+      </c>
+      <c r="K287" t="n">
+        <v>-0.001683916987636009</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5316,6 +9621,21 @@
       <c r="E288" t="n">
         <v>-0.001459935161407908</v>
       </c>
+      <c r="G288" t="n">
+        <v>94.2243995666504</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-210.8370807415884</v>
+      </c>
+      <c r="I288" t="n">
+        <v>-0.003279902243139191</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-0.01766638577337839</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-0.001341842545359499</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5333,6 +9653,21 @@
       <c r="E289" t="n">
         <v>-0.001614961350476347</v>
       </c>
+      <c r="G289" t="n">
+        <v>94.55444717407229</v>
+      </c>
+      <c r="H289" t="n">
+        <v>-217.9994047891938</v>
+      </c>
+      <c r="I289" t="n">
+        <v>-0.003211603749616993</v>
+      </c>
+      <c r="J289" t="n">
+        <v>-0.01731377874936944</v>
+      </c>
+      <c r="K289" t="n">
+        <v>-0.001759041300628642</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5350,6 +9685,21 @@
       <c r="E290" t="n">
         <v>-0.001529402053580596</v>
       </c>
+      <c r="G290" t="n">
+        <v>94.88449859619141</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-205.0089582034797</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-0.003188638106613444</v>
+      </c>
+      <c r="J290" t="n">
+        <v>-0.01730974299034521</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-0.00138553692418184</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5367,6 +9717,21 @@
       <c r="E291" t="n">
         <v>-0.001681130759666439</v>
       </c>
+      <c r="G291" t="n">
+        <v>95.21450042724609</v>
+      </c>
+      <c r="H291" t="n">
+        <v>-210.8203441289632</v>
+      </c>
+      <c r="I291" t="n">
+        <v>-0.003111090760231857</v>
+      </c>
+      <c r="J291" t="n">
+        <v>-0.0169198462561392</v>
+      </c>
+      <c r="K291" t="n">
+        <v>-0.001791737729647426</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5384,6 +9749,21 @@
       <c r="E292" t="n">
         <v>-0.001584483766610688</v>
       </c>
+      <c r="G292" t="n">
+        <v>95.54455184936521</v>
+      </c>
+      <c r="H292" t="n">
+        <v>-197.0437523215412</v>
+      </c>
+      <c r="I292" t="n">
+        <v>-0.003081738976679222</v>
+      </c>
+      <c r="J292" t="n">
+        <v>-0.01690188472496655</v>
+      </c>
+      <c r="K292" t="n">
+        <v>-0.001396954758207253</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5401,6 +9781,21 @@
       <c r="E293" t="n">
         <v>-0.001743316193641348</v>
       </c>
+      <c r="G293" t="n">
+        <v>95.8745994567871</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-203.2003673135222</v>
+      </c>
+      <c r="I293" t="n">
+        <v>-0.002996679725454707</v>
+      </c>
+      <c r="J293" t="n">
+        <v>-0.01649743406479164</v>
+      </c>
+      <c r="K293" t="n">
+        <v>-0.00182195335187002</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5418,6 +9813,21 @@
       <c r="E294" t="n">
         <v>-0.00165413535818827</v>
       </c>
+      <c r="G294" t="n">
+        <v>96.2045974731445</v>
+      </c>
+      <c r="H294" t="n">
+        <v>-190.0537211374476</v>
+      </c>
+      <c r="I294" t="n">
+        <v>-0.002958617256730634</v>
+      </c>
+      <c r="J294" t="n">
+        <v>-0.01647418731985626</v>
+      </c>
+      <c r="K294" t="n">
+        <v>-0.001454925372739068</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5435,6 +9845,21 @@
       <c r="E295" t="n">
         <v>-0.001825191695631159</v>
       </c>
+      <c r="G295" t="n">
+        <v>96.5346488952637</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-197.5224029064789</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-0.002861554387952885</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-0.01606480094067514</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-0.001934923585644985</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5452,6 +9877,21 @@
       <c r="E296" t="n">
         <v>-0.001754464663582389</v>
       </c>
+      <c r="G296" t="n">
+        <v>96.8647003173828</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-184.3814545196643</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-0.002807266577306119</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-0.01603467900546432</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-0.00161569124174304</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5469,6 +9909,21 @@
       <c r="E297" t="n">
         <v>-0.001951729499381936</v>
       </c>
+      <c r="G297" t="n">
+        <v>97.1947021484375</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-190.7276903039656</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-0.002688378274627402</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-0.01562004125063073</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-0.002127587717382285</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5486,6 +9941,21 @@
       <c r="E298" t="n">
         <v>-0.001927739472852952</v>
       </c>
+      <c r="G298" t="n">
+        <v>97.5247497558594</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-174.2508259478506</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-0.002607949218979101</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-0.01560793663238372</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-0.00176238780039129</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5503,6 +9973,21 @@
       <c r="E299" t="n">
         <v>-0.002196979613854193</v>
       </c>
+      <c r="G299" t="n">
+        <v>97.85479736328119</v>
+      </c>
+      <c r="H299" t="n">
+        <v>-174.6252091903898</v>
+      </c>
+      <c r="I299" t="n">
+        <v>-0.002454759996015901</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-0.01522616687788238</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-0.002158820121964512</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5520,6 +10005,21 @@
       <c r="E300" t="n">
         <v>-0.002145123158982036</v>
       </c>
+      <c r="G300" t="n">
+        <v>98.18479919433589</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-145.9939989963424</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-0.002332151851157521</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-0.01528135633637102</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-0.001501443588349716</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5537,6 +10037,21 @@
       <c r="E301" t="n">
         <v>-0.002109188446546</v>
       </c>
+      <c r="G301" t="n">
+        <v>98.51485061645511</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-132.6867464221563</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-0.002132359938054669</v>
+      </c>
+      <c r="J301" t="n">
+        <v>-0.01502430286222092</v>
+      </c>
+      <c r="K301" t="n">
+        <v>-0.001496318700454845</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5554,6 +10069,21 @@
       <c r="E302" t="n">
         <v>-0.001423049777379258</v>
       </c>
+      <c r="G302" t="n">
+        <v>98.8449020385742</v>
+      </c>
+      <c r="H302" t="n">
+        <v>-102.6483045033271</v>
+      </c>
+      <c r="I302" t="n">
+        <v>-0.001961373978114068</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-0.01527806732538616</v>
+      </c>
+      <c r="K302" t="n">
+        <v>-0.0005780182643116112</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5571,6 +10101,21 @@
       <c r="E303" t="n">
         <v>-0.0009241560989934182</v>
       </c>
+      <c r="G303" t="n">
+        <v>99.1749000549316</v>
+      </c>
+      <c r="H303" t="n">
+        <v>-127.8598342557931</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-0.001714106006513605</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-0.01530192463306938</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-0.001317805335087254</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5587,6 +10132,21 @@
       </c>
       <c r="E304" t="n">
         <v>-0.0004870992961335201</v>
+      </c>
+      <c r="G304" t="n">
+        <v>99.5049476623535</v>
+      </c>
+      <c r="H304" t="n">
+        <v>-172.7855030113782</v>
+      </c>
+      <c r="I304" t="n">
+        <v>-0.001531346407599938</v>
+      </c>
+      <c r="J304" t="n">
+        <v>-0.01631500916582693</v>
+      </c>
+      <c r="K304" t="n">
+        <v>-0.001891950138918137</v>
       </c>
     </row>
   </sheetData>
